--- a/Assets/SDProject/DataTables/Xlsx/CardData.xlsx
+++ b/Assets/SDProject/DataTables/Xlsx/CardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SD\SDProject\Assets\SDProject\DataTables\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2845704E-0AAB-47F2-ADAE-5158A5871B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429F3A4D-C3A1-4526-B045-55094C2A37EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42765" yWindow="4365" windowWidth="28800" windowHeight="15345" xr2:uid="{DCFF4548-CAEB-432A-B1AE-A65A169FFBF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{DCFF4548-CAEB-432A-B1AE-A65A169FFBF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="74">
   <si>
     <t>Type</t>
   </si>
@@ -181,14 +181,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CardData_Base_Atk_HeavyStrike_00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardData_Base_Atk_HeavyStrike_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CardData_Sup_Bandage_00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -235,12 +227,6 @@
     <t>CardName_Base_Atk_Strike_01</t>
   </si>
   <si>
-    <t>CardName_Base_Atk_HeavyStrike_00</t>
-  </si>
-  <si>
-    <t>CardName_Base_Atk_HeavyStrike_01</t>
-  </si>
-  <si>
     <t>CardName_Def_Guard_00</t>
   </si>
   <si>
@@ -275,12 +261,6 @@
   </si>
   <si>
     <t>CardDesc_Base_Atk_Strike_01</t>
-  </si>
-  <si>
-    <t>CardDesc_Base_Atk_HeavyStrike_00</t>
-  </si>
-  <si>
-    <t>CardDesc_Base_Atk_HeavyStrike_01</t>
   </si>
   <si>
     <t>CardDesc_Def_Guard_00</t>
@@ -745,7 +725,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -883,10 +863,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>28</v>
@@ -931,10 +911,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>28</v>
@@ -970,19 +950,19 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>37</v>
@@ -991,16 +971,16 @@
         <v>6</v>
       </c>
       <c r="I5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>19</v>
@@ -1012,24 +992,24 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>37</v>
@@ -1038,16 +1018,16 @@
         <v>6</v>
       </c>
       <c r="I6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>19</v>
@@ -1061,19 +1041,19 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>37</v>
@@ -1103,24 +1083,24 @@
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>37</v>
@@ -1152,19 +1132,19 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>37</v>
@@ -1176,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>33</v>
@@ -1194,24 +1174,24 @@
         <v>0</v>
       </c>
       <c r="P9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>37</v>
@@ -1220,10 +1200,10 @@
         <v>6</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>33</v>
@@ -1243,16 +1223,16 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>31</v>
@@ -1285,21 +1265,21 @@
         <v>0</v>
       </c>
       <c r="P11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>31</v>
@@ -1334,16 +1314,16 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>31</v>
@@ -1355,10 +1335,10 @@
         <v>6</v>
       </c>
       <c r="I13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>33</v>
@@ -1376,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>31</v>
@@ -1402,10 +1382,10 @@
         <v>6</v>
       </c>
       <c r="I14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>33</v>
@@ -1420,97 +1400,6 @@
         <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="4">
-        <v>2</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-      <c r="P15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
         <v>1</v>
       </c>
     </row>
